--- a/biology/Botanique/Rhododendron_albrechtii/Rhododendron_albrechtii.xlsx
+++ b/biology/Botanique/Rhododendron_albrechtii/Rhododendron_albrechtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron albrechtii est une espèce de plantes de la famille des Ericaceae, originaire du Japon.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbuste Rhododendron albrechtii a été présenté pour la première fois en Europe par Michael Albrecht, un médecin en poste au consulat de Russie à Hakodate (Hokkaidō) durant les années 1860. Il a été décrit par le botaniste Carl Maximowicz en 1870[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbuste Rhododendron albrechtii a été présenté pour la première fois en Europe par Michael Albrecht, un médecin en poste au consulat de Russie à Hakodate (Hokkaidō) durant les années 1860. Il a été décrit par le botaniste Carl Maximowicz en 1870.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la nature, Rhododendron albrechtii occupe les étages montagnard et subalpin (entre 700 et 2 000 m d'altitude), du centre de l'île de Honshū jusqu'à Hokkaidō, île septentrionale de l'archipel japonais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la nature, Rhododendron albrechtii occupe les étages montagnard et subalpin (entre 700 et 2 000 m d'altitude), du centre de l'île de Honshū jusqu'à Hokkaidō, île septentrionale de l'archipel japonais.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Azalea albrechtii (Maxim.) Kuntze
 Rhododendron albrechtii f. albiflorum T. Yamazaki
@@ -605,9 +623,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Murasaki yashio tsutsuji, Japon[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Murasaki yashio tsutsuji, Japon</t>
         </is>
       </c>
     </row>
